--- a/docs/Backlog.xlsx
+++ b/docs/Backlog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="58">
   <si>
     <t>Status</t>
   </si>
@@ -186,6 +186,18 @@
   </si>
   <si>
     <t>Fazer o script do banco de dados</t>
+  </si>
+  <si>
+    <t>Fazer Diagrama de visão de negócio</t>
+  </si>
+  <si>
+    <t>Fazer Diagrama de visão de negócio do projeto</t>
+  </si>
+  <si>
+    <t>Fazer função e validação de login</t>
+  </si>
+  <si>
+    <t>Fazer a função que válida os dados inseridos pelo usuário no login com o banco de dados</t>
   </si>
 </sst>
 </file>
@@ -621,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I21"/>
+  <dimension ref="B2:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,7 +805,7 @@
     </row>
     <row r="9" spans="2:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>26</v>
@@ -816,7 +828,7 @@
     </row>
     <row r="10" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>27</v>
@@ -862,7 +874,7 @@
     </row>
     <row r="12" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>29</v>
@@ -977,7 +989,7 @@
     </row>
     <row r="17" spans="2:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>44</v>
@@ -1087,6 +1099,52 @@
         <v>3</v>
       </c>
       <c r="H21" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="9">
+        <v>5</v>
+      </c>
+      <c r="H22" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="12">
+        <v>13</v>
+      </c>
+      <c r="H23" s="12">
         <v>1</v>
       </c>
     </row>

--- a/docs/Backlog.xlsx
+++ b/docs/Backlog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="62">
   <si>
     <t>Status</t>
   </si>
@@ -198,6 +198,18 @@
   </si>
   <si>
     <t>Fazer a função que válida os dados inseridos pelo usuário no login com o banco de dados</t>
+  </si>
+  <si>
+    <t>Fazer página do Quis</t>
+  </si>
+  <si>
+    <t>Fazer página html do quis</t>
+  </si>
+  <si>
+    <t>Inserção do quis</t>
+  </si>
+  <si>
+    <t>Fazer a inserção dos dados do quiz no banco de dados</t>
   </si>
 </sst>
 </file>
@@ -633,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I23"/>
+  <dimension ref="B2:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,7 +863,7 @@
     </row>
     <row r="11" spans="2:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>28</v>
@@ -897,7 +909,7 @@
     </row>
     <row r="13" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>33</v>
@@ -920,7 +932,7 @@
     </row>
     <row r="14" spans="2:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>35</v>
@@ -943,7 +955,7 @@
     </row>
     <row r="15" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>37</v>
@@ -966,7 +978,7 @@
     </row>
     <row r="16" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>38</v>
@@ -1012,7 +1024,7 @@
     </row>
     <row r="18" spans="2:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>45</v>
@@ -1035,7 +1047,7 @@
     </row>
     <row r="19" spans="2:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>47</v>
@@ -1127,7 +1139,7 @@
     </row>
     <row r="23" spans="2:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>56</v>
@@ -1145,6 +1157,52 @@
         <v>13</v>
       </c>
       <c r="H23" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="9">
+        <v>8</v>
+      </c>
+      <c r="H24" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B25" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="12">
+        <v>21</v>
+      </c>
+      <c r="H25" s="12">
         <v>1</v>
       </c>
     </row>

--- a/docs/Backlog.xlsx
+++ b/docs/Backlog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="66">
   <si>
     <t>Status</t>
   </si>
@@ -210,6 +210,18 @@
   </si>
   <si>
     <t>Fazer a inserção dos dados do quiz no banco de dados</t>
+  </si>
+  <si>
+    <t>Fazer Diagrama de solução técnica</t>
+  </si>
+  <si>
+    <t>Fazer Diagrama de solução técnica do projeto</t>
+  </si>
+  <si>
+    <t>Fazer Slides de Apresentação</t>
+  </si>
+  <si>
+    <t>Fazer Slides para a apresentação do projeto</t>
   </si>
 </sst>
 </file>
@@ -645,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I25"/>
+  <dimension ref="B2:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,7 +829,7 @@
     </row>
     <row r="9" spans="2:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>26</v>
@@ -840,7 +852,7 @@
     </row>
     <row r="10" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>27</v>
@@ -932,7 +944,7 @@
     </row>
     <row r="14" spans="2:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>35</v>
@@ -955,7 +967,7 @@
     </row>
     <row r="15" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>37</v>
@@ -978,7 +990,7 @@
     </row>
     <row r="16" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>38</v>
@@ -1203,6 +1215,52 @@
         <v>21</v>
       </c>
       <c r="H25" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="9">
+        <v>5</v>
+      </c>
+      <c r="H26" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B27" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="12">
+        <v>5</v>
+      </c>
+      <c r="H27" s="12">
         <v>1</v>
       </c>
     </row>

--- a/docs/Backlog.xlsx
+++ b/docs/Backlog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="66">
   <si>
     <t>Status</t>
   </si>
@@ -944,7 +944,7 @@
     </row>
     <row r="14" spans="2:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>35</v>

--- a/docs/Backlog.xlsx
+++ b/docs/Backlog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="64">
   <si>
     <t>Status</t>
   </si>
@@ -101,16 +101,10 @@
     <t>FAZER</t>
   </si>
   <si>
-    <t>Colocar conteúdo real na página Sobre mim</t>
-  </si>
-  <si>
     <t>Colocar conteúdo na Home</t>
   </si>
   <si>
     <t>Colocar conteúdo em Personagens</t>
-  </si>
-  <si>
-    <t>Colocar conteúdo na Sobre mim</t>
   </si>
   <si>
     <t>Validação na pagina de cadastro</t>
@@ -657,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I27"/>
+  <dimension ref="B2:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,7 +737,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>10</v>
@@ -832,7 +826,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>22</v>
@@ -855,7 +849,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>23</v>
@@ -873,55 +867,55 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="12">
+        <v>5</v>
+      </c>
+      <c r="H11" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="12">
-        <v>3</v>
-      </c>
-      <c r="H11" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="10" t="s">
+      <c r="D12" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="9">
+        <v>8</v>
+      </c>
+      <c r="H12" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="12" t="s">
         <v>29</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="9">
-        <v>5</v>
-      </c>
-      <c r="H12" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="12" t="s">
-        <v>31</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>33</v>
@@ -942,15 +936,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>10</v>
@@ -965,38 +959,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="12">
+        <v>13</v>
+      </c>
+      <c r="H15" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>40</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="12">
-        <v>8</v>
-      </c>
-      <c r="H15" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>39</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>10</v>
@@ -1005,27 +999,27 @@
         <v>41</v>
       </c>
       <c r="G16" s="9">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H16" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>42</v>
-      </c>
       <c r="E17" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G17" s="12">
         <v>21</v>
@@ -1034,7 +1028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
         <v>7</v>
       </c>
@@ -1048,39 +1042,39 @@
         <v>10</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="G18" s="9">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="H18" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G19" s="12">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H19" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
         <v>7</v>
       </c>
@@ -1103,9 +1097,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>52</v>
@@ -1114,21 +1108,21 @@
         <v>53</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="G21" s="12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H21" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>54</v>
@@ -1137,19 +1131,19 @@
         <v>55</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G22" s="9">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H22" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
         <v>7</v>
       </c>
@@ -1163,16 +1157,16 @@
         <v>10</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="G23" s="12">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H23" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
         <v>7</v>
       </c>
@@ -1186,18 +1180,18 @@
         <v>10</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="G24" s="9">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="H24" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>60</v>
@@ -1206,19 +1200,19 @@
         <v>61</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G25" s="12">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="H25" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
         <v>24</v>
       </c>
@@ -1229,38 +1223,15 @@
         <v>63</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G26" s="9">
         <v>5</v>
       </c>
       <c r="H26" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B27" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" s="12">
-        <v>5</v>
-      </c>
-      <c r="H27" s="12">
         <v>1</v>
       </c>
     </row>

--- a/docs/Backlog.xlsx
+++ b/docs/Backlog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="63">
   <si>
     <t>Status</t>
   </si>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t>Colocar conteúdo real na página Personagens</t>
-  </si>
-  <si>
-    <t>FAZER</t>
   </si>
   <si>
     <t>Colocar conteúdo na Home</t>
@@ -654,7 +651,7 @@
   <dimension ref="B2:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,7 +734,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>10</v>
@@ -826,7 +823,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>22</v>
@@ -849,7 +846,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>23</v>
@@ -872,16 +869,16 @@
         <v>7</v>
       </c>
       <c r="C11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="E11" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G11" s="12">
         <v>5</v>
@@ -892,13 +889,13 @@
     </row>
     <row r="12" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>32</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>10</v>
@@ -915,13 +912,13 @@
     </row>
     <row r="13" spans="2:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C13" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>34</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>10</v>
@@ -938,13 +935,13 @@
     </row>
     <row r="14" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>10</v>
@@ -961,19 +958,19 @@
     </row>
     <row r="15" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C15" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>37</v>
-      </c>
       <c r="E15" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" s="12">
         <v>13</v>
@@ -987,16 +984,16 @@
         <v>7</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>41</v>
       </c>
       <c r="G16" s="9">
         <v>21</v>
@@ -1010,16 +1007,16 @@
         <v>7</v>
       </c>
       <c r="C17" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>44</v>
-      </c>
       <c r="E17" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G17" s="12">
         <v>21</v>
@@ -1033,10 +1030,10 @@
         <v>7</v>
       </c>
       <c r="C18" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>45</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>46</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>10</v>
@@ -1056,10 +1053,10 @@
         <v>7</v>
       </c>
       <c r="C19" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="14" t="s">
         <v>48</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>49</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>10</v>
@@ -1079,10 +1076,10 @@
         <v>7</v>
       </c>
       <c r="C20" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>50</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>51</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>10</v>
@@ -1099,19 +1096,19 @@
     </row>
     <row r="21" spans="2:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C21" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="14" t="s">
         <v>52</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>53</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G21" s="12">
         <v>5</v>
@@ -1125,16 +1122,16 @@
         <v>7</v>
       </c>
       <c r="C22" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>55</v>
-      </c>
       <c r="E22" s="9" t="s">
         <v>10</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G22" s="9">
         <v>13</v>
@@ -1148,10 +1145,10 @@
         <v>7</v>
       </c>
       <c r="C23" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="14" t="s">
         <v>56</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>57</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>10</v>
@@ -1171,16 +1168,16 @@
         <v>7</v>
       </c>
       <c r="C24" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="11" t="s">
-        <v>59</v>
-      </c>
       <c r="E24" s="9" t="s">
         <v>10</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G24" s="9">
         <v>21</v>
@@ -1191,19 +1188,19 @@
     </row>
     <row r="25" spans="2:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C25" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="14" t="s">
         <v>60</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>61</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G25" s="12">
         <v>5</v>
@@ -1214,19 +1211,19 @@
     </row>
     <row r="26" spans="2:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C26" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="11" t="s">
-        <v>63</v>
-      </c>
       <c r="E26" s="9" t="s">
         <v>10</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G26" s="9">
         <v>5</v>

--- a/docs/Backlog.xlsx
+++ b/docs/Backlog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="62">
   <si>
     <t>Status</t>
   </si>
@@ -108,9 +108,6 @@
   </si>
   <si>
     <t>Fazer validações em todos os campos da página de cadastro</t>
-  </si>
-  <si>
-    <t>FAZENDO</t>
   </si>
   <si>
     <t>P</t>
@@ -651,7 +648,7 @@
   <dimension ref="B2:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,7 +731,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>10</v>
@@ -878,7 +875,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G11" s="12">
         <v>5</v>
@@ -892,10 +889,10 @@
         <v>7</v>
       </c>
       <c r="C12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>31</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>10</v>
@@ -915,10 +912,10 @@
         <v>7</v>
       </c>
       <c r="C13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>32</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>33</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>10</v>
@@ -938,10 +935,10 @@
         <v>7</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>10</v>
@@ -961,16 +958,16 @@
         <v>7</v>
       </c>
       <c r="C15" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>36</v>
-      </c>
       <c r="E15" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G15" s="12">
         <v>13</v>
@@ -984,16 +981,16 @@
         <v>7</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>39</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>40</v>
       </c>
       <c r="G16" s="9">
         <v>21</v>
@@ -1007,16 +1004,16 @@
         <v>7</v>
       </c>
       <c r="C17" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>43</v>
-      </c>
       <c r="E17" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G17" s="12">
         <v>21</v>
@@ -1030,10 +1027,10 @@
         <v>7</v>
       </c>
       <c r="C18" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>44</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>45</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>10</v>
@@ -1053,10 +1050,10 @@
         <v>7</v>
       </c>
       <c r="C19" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="14" t="s">
         <v>47</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>48</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>10</v>
@@ -1076,10 +1073,10 @@
         <v>7</v>
       </c>
       <c r="C20" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>49</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>50</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>10</v>
@@ -1099,16 +1096,16 @@
         <v>7</v>
       </c>
       <c r="C21" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="14" t="s">
         <v>51</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>52</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G21" s="12">
         <v>5</v>
@@ -1122,16 +1119,16 @@
         <v>7</v>
       </c>
       <c r="C22" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>54</v>
-      </c>
       <c r="E22" s="9" t="s">
         <v>10</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G22" s="9">
         <v>13</v>
@@ -1145,10 +1142,10 @@
         <v>7</v>
       </c>
       <c r="C23" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="14" t="s">
         <v>55</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>56</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>10</v>
@@ -1168,16 +1165,16 @@
         <v>7</v>
       </c>
       <c r="C24" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="E24" s="9" t="s">
         <v>10</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G24" s="9">
         <v>21</v>
@@ -1191,16 +1188,16 @@
         <v>7</v>
       </c>
       <c r="C25" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="14" t="s">
         <v>59</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>60</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G25" s="12">
         <v>5</v>
@@ -1211,19 +1208,19 @@
     </row>
     <row r="26" spans="2:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="G26" s="9">
         <v>5</v>

--- a/docs/Backlog.xlsx
+++ b/docs/Backlog.xlsx
@@ -647,7 +647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
